--- a/GetCompanyDetailsFromRecruitNavi/01.Config/05.Template.xlsx
+++ b/GetCompanyDetailsFromRecruitNavi/01.Config/05.Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92aee0bfe262aabc/Documents/周平用プログラム/GetCompanyDetailsFromRecruitNavi/GetCompanyDetailsFromRecruitNavi/01.Config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92aee0bfe262aabc/Documents/周平用プログラム/GetCompanyDetailsFromRecruitNavi/01.Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{FEB4FF81-7F61-483A-AA2E-2AF26254F231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A913892E-8639-4110-A71A-1D6320993A1F}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{FEB4FF81-7F61-483A-AA2E-2AF26254F231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9992A50-A6F6-4BE0-9ACB-AA548E46D37C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0743E63F-5757-4366-82B7-64090ECFEE1C}"/>
   </bookViews>
@@ -25,28 +25,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
-    <t>PostalCode</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>業種</t>
+  </si>
+  <si>
+    <t>設立</t>
+  </si>
+  <si>
+    <t>代表者</t>
+  </si>
+  <si>
+    <t>事業内容</t>
+  </si>
+  <si>
+    <t>社名</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>資本金</t>
+  </si>
+  <si>
+    <t>従業員数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +72,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF383838"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF383838"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,12 +110,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE1E1E1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1E1E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,32 +446,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446CA061-9231-4E96-B82F-BFED084C7439}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>